--- a/totals/SI.Annual.xlsx
+++ b/totals/SI.Annual.xlsx
@@ -1,185 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/2023-2025 VT/Data/SI_VT/totals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E2772-F78D-654C-84CE-75C4AB8CF3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23960" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SI.Season" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SI.Annual" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SI.Season" sheetId="1" r:id="rId1"/>
+    <sheet name="SI.Annual" sheetId="2" r:id="rId2"/>
+    <sheet name="EAS_Annual" sheetId="3" r:id="rId3"/>
+    <sheet name="Scraper_EAS" sheetId="7" r:id="rId4"/>
+    <sheet name="Shredder_EAS" sheetId="6" r:id="rId5"/>
+    <sheet name="FRY_Annual" sheetId="4" r:id="rId6"/>
+    <sheet name="Shredder_FRY" sheetId="8" r:id="rId7"/>
+    <sheet name="Scraper_FRY" sheetId="9" r:id="rId8"/>
+    <sheet name="ColeopteraScraper-FRY" sheetId="10" r:id="rId9"/>
+    <sheet name="RIC_Annual" sheetId="5" r:id="rId10"/>
+    <sheet name="Shredder_RIC" sheetId="11" r:id="rId11"/>
+    <sheet name="ColeopteraScraper_RIC" sheetId="12" r:id="rId12"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season.wtN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season.wtC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season.Atomic.CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season.d15N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season.d13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC.Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC.Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossosoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peltoperla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shredder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteronarcys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenonema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tallaperla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphinemura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lepidostoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracapnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leuctra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psephenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coleoptera Scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydatophylax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neophylax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drunella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helichus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platycentropus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psephenidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taeniopteryx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ectopria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pycnopsyche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wtN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wtC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic.CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d15N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d13C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="52">
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>season.wtN</t>
+  </si>
+  <si>
+    <t>season.wtC</t>
+  </si>
+  <si>
+    <t>season.Atomic.CN</t>
+  </si>
+  <si>
+    <t>season.d15N</t>
+  </si>
+  <si>
+    <t>season.d13C</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>SC.Level</t>
+  </si>
+  <si>
+    <t>SC.Category</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Glossosoma</t>
+  </si>
+  <si>
+    <t>Scraper</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Peltoperla</t>
+  </si>
+  <si>
+    <t>Shredder</t>
+  </si>
+  <si>
+    <t>Pteronarcys</t>
+  </si>
+  <si>
+    <t>Stenonema</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Tallaperla</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Amphinemura</t>
+  </si>
+  <si>
+    <t>Lepidostoma</t>
+  </si>
+  <si>
+    <t>Molophilus</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Paracapnia</t>
+  </si>
+  <si>
+    <t>FRY</t>
+  </si>
+  <si>
+    <t>Leuctra</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Psephenus</t>
+  </si>
+  <si>
+    <t>Coleoptera Scraper</t>
+  </si>
+  <si>
+    <t>Hydatophylax</t>
+  </si>
+  <si>
+    <t>Neophylax</t>
+  </si>
+  <si>
+    <t>Tipula</t>
+  </si>
+  <si>
+    <t>Drunella</t>
+  </si>
+  <si>
+    <t>Helichus</t>
+  </si>
+  <si>
+    <t>Platycentropus</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Taeniopteryx</t>
+  </si>
+  <si>
+    <t>Ectopria</t>
+  </si>
+  <si>
+    <t>Pycnopsyche</t>
+  </si>
+  <si>
+    <t>wtN</t>
+  </si>
+  <si>
+    <t>wtC</t>
+  </si>
+  <si>
+    <t>Atomic.CN</t>
+  </si>
+  <si>
+    <t>d15N</t>
+  </si>
+  <si>
+    <t>d13C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,13 +214,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,13 +259,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -496,14 +560,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -548,20 +614,20 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.43</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>51.42</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5.75</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.78</v>
       </c>
-      <c r="H2" t="n">
-        <v>-32.88</v>
+      <c r="H2">
+        <v>-32.880000000000003</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -573,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -583,19 +649,19 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
-        <v>9.10333333333333</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>9.1033333333333299</v>
+      </c>
+      <c r="E3">
         <v>51.7</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.63666666666667</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.09333333333333</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>6.6366666666666703</v>
+      </c>
+      <c r="G3">
+        <v>1.0933333333333299</v>
+      </c>
+      <c r="H3">
         <v>-27.59</v>
       </c>
       <c r="I3" t="s">
@@ -608,7 +674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -618,19 +684,19 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9.84</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>50.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5.99</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-0.51</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-27.08</v>
       </c>
       <c r="I4" t="s">
@@ -643,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -653,19 +719,19 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.595</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44.005</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>7.5949999999999998</v>
+      </c>
+      <c r="E5">
+        <v>44.005000000000003</v>
+      </c>
+      <c r="F5">
         <v>6.915</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.76</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-27.625</v>
       </c>
       <c r="I5" t="s">
@@ -678,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -688,19 +754,19 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.485</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>7.4850000000000003</v>
+      </c>
+      <c r="E6">
         <v>52.31</v>
       </c>
-      <c r="F6" t="n">
-        <v>8.645</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="F6">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H6">
         <v>-28.59</v>
       </c>
       <c r="I6" t="s">
@@ -713,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -723,19 +789,19 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>8.92</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>53.95</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>7.06</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.74</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-28.24</v>
       </c>
       <c r="I7" t="s">
@@ -748,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -758,20 +824,20 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.55333333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44.0033333333333</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.53333333333333</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.716666666666667</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-28.1833333333333</v>
+      <c r="D8">
+        <v>5.5533333333333301</v>
+      </c>
+      <c r="E8">
+        <v>44.003333333333302</v>
+      </c>
+      <c r="F8">
+        <v>9.5333333333333297</v>
+      </c>
+      <c r="G8">
+        <v>-0.71666666666666701</v>
+      </c>
+      <c r="H8">
+        <v>-28.183333333333302</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -783,7 +849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -793,19 +859,19 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>7.375</v>
       </c>
-      <c r="E9" t="n">
-        <v>50.485</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.005</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-2.205</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="E9">
+        <v>50.484999999999999</v>
+      </c>
+      <c r="F9">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="G9">
+        <v>-2.2050000000000001</v>
+      </c>
+      <c r="H9">
         <v>-27.47</v>
       </c>
       <c r="I9" t="s">
@@ -818,7 +884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -828,19 +894,19 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>10.29</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>53.19</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>6.03</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.43</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-27.86</v>
       </c>
       <c r="I10" t="s">
@@ -853,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -863,19 +929,19 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>8.81</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>50.99</v>
       </c>
-      <c r="F11" t="n">
-        <v>6.75666666666667</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.626666666666667</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="F11">
+        <v>6.7566666666666704</v>
+      </c>
+      <c r="G11">
+        <v>0.62666666666666704</v>
+      </c>
+      <c r="H11">
         <v>-28.0833333333333</v>
       </c>
       <c r="I11" t="s">
@@ -888,7 +954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -898,20 +964,20 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="n">
-        <v>8.45333333333333</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.2333333333333</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.63333333333333</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.753333333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-27.6333333333333</v>
+      <c r="D12">
+        <v>8.4533333333333296</v>
+      </c>
+      <c r="E12">
+        <v>47.233333333333299</v>
+      </c>
+      <c r="F12">
+        <v>6.6333333333333302</v>
+      </c>
+      <c r="G12">
+        <v>-0.75333333333333297</v>
+      </c>
+      <c r="H12">
+        <v>-27.633333333333301</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -923,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -936,7 +1002,7 @@
       <c r="D13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>52.59</v>
       </c>
       <c r="F13" t="e">
@@ -945,7 +1011,7 @@
       <c r="G13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-29.32</v>
       </c>
       <c r="I13" t="s">
@@ -958,7 +1024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -968,19 +1034,19 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>12.05</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>50.34</v>
       </c>
       <c r="F14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.11</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-26.93</v>
       </c>
       <c r="I14" t="s">
@@ -993,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1072,7 @@
       <c r="D15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>49.4</v>
       </c>
       <c r="F15" t="e">
@@ -1015,8 +1081,8 @@
       <c r="G15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="H15" t="n">
-        <v>-27.345</v>
+      <c r="H15">
+        <v>-27.344999999999999</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1028,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1038,20 +1104,20 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>13.705</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>57.94</v>
       </c>
       <c r="F16" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.725</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-27.325</v>
+      <c r="G16">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="H16">
+        <v>-27.324999999999999</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1063,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1073,19 +1139,19 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="n">
-        <v>9.455</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>9.4550000000000001</v>
+      </c>
+      <c r="E17">
         <v>48.82</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>6.03</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.485</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="H17">
         <v>-26.73</v>
       </c>
       <c r="I17" t="s">
@@ -1098,7 +1164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1108,19 +1174,19 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>10.1</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>47.2</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>5.45</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-0.34</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>-30.94</v>
       </c>
       <c r="I18" t="s">
@@ -1133,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1143,20 +1209,20 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>9.8550000000000004</v>
+      </c>
+      <c r="E19">
         <v>48.14</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>5.8</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.61</v>
       </c>
-      <c r="H19" t="n">
-        <v>-27.345</v>
+      <c r="H19">
+        <v>-27.344999999999999</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1168,7 +1234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1178,20 +1244,20 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.55</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>34.15</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>8.9</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1.605</v>
       </c>
-      <c r="H20" t="n">
-        <v>-29.975</v>
+      <c r="H20">
+        <v>-29.975000000000001</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1203,7 +1269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1213,19 +1279,19 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5.78</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>47.56</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>9.6</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-1.68</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-28.89</v>
       </c>
       <c r="I21" t="s">
@@ -1238,7 +1304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1248,19 +1314,19 @@
       <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>8.17</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>43.51</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>6.21</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1.17</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-27.89</v>
       </c>
       <c r="I22" t="s">
@@ -1273,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1283,19 +1349,19 @@
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>60.59</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>10.88</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.22</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-29.5</v>
       </c>
       <c r="I23" t="s">
@@ -1308,7 +1374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1318,19 +1384,19 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>9.81</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>49.28</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5.86</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.49</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-27.72</v>
       </c>
       <c r="I24" t="s">
@@ -1343,7 +1409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1353,19 +1419,19 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>9.08</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>39.42</v>
       </c>
-      <c r="F25" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G25">
         <v>0.53</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-28.13</v>
       </c>
       <c r="I25" t="s">
@@ -1378,7 +1444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1388,20 +1454,20 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="n">
-        <v>9.205</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="E26">
         <v>43.52</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>5.585</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.87</v>
       </c>
-      <c r="H26" t="n">
-        <v>-26.525</v>
+      <c r="H26">
+        <v>-26.524999999999999</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1413,7 +1479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1423,19 +1489,19 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5.52</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>38.83</v>
       </c>
-      <c r="F27" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="F27">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H27">
         <v>-24.73</v>
       </c>
       <c r="I27" t="s">
@@ -1448,7 +1514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1458,20 +1524,20 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>5.98</v>
       </c>
-      <c r="E28" t="n">
-        <v>46.215</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9.045</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="E28">
+        <v>46.215000000000003</v>
+      </c>
+      <c r="F28">
+        <v>9.0449999999999999</v>
+      </c>
+      <c r="G28">
         <v>2.86</v>
       </c>
-      <c r="H28" t="n">
-        <v>-24.885</v>
+      <c r="H28">
+        <v>-24.885000000000002</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1483,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1493,20 +1559,20 @@
       <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="n">
-        <v>9.595</v>
-      </c>
-      <c r="E29" t="n">
-        <v>51.345</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="D29">
+        <v>9.5950000000000006</v>
+      </c>
+      <c r="E29">
+        <v>51.344999999999999</v>
+      </c>
+      <c r="F29">
         <v>6.26</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3.21</v>
       </c>
-      <c r="H29" t="n">
-        <v>-23.335</v>
+      <c r="H29">
+        <v>-23.335000000000001</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -1518,7 +1584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1528,19 +1594,19 @@
       <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>6.63</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>51.91</v>
       </c>
-      <c r="F30" t="n">
-        <v>9.13</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G30">
         <v>1.5</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-28.22</v>
       </c>
       <c r="I30" t="s">
@@ -1553,7 +1619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1563,19 +1629,19 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>7.415</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>47.38</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>7.47</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-1.36</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-27.87</v>
       </c>
       <c r="I31" t="s">
@@ -1588,7 +1654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1598,19 +1664,19 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>11.29</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>49.2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5.08</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2.88</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-26.09</v>
       </c>
       <c r="I32" t="s">
@@ -1623,7 +1689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1633,19 +1699,19 @@
       <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>9.51</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>43.79</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>5.37</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1.2</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-25.38</v>
       </c>
       <c r="I33" t="s">
@@ -1658,7 +1724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1668,19 +1734,19 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>9.89</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>50.33</v>
       </c>
       <c r="F34" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2.31</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-26.85</v>
       </c>
       <c r="I34" t="s">
@@ -1693,7 +1759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1703,19 +1769,19 @@
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>9.6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>45.56</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2.04</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-29.83</v>
       </c>
       <c r="I35" t="s">
@@ -1728,7 +1794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1736,21 +1802,21 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36">
         <v>8.44</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>46.29</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G36">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H36">
         <v>-30.63</v>
       </c>
       <c r="I36" t="s">
@@ -1763,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1773,19 +1839,19 @@
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" t="n">
-        <v>10.3875</v>
-      </c>
-      <c r="E37" t="n">
-        <v>44.645</v>
+      <c r="D37">
+        <v>10.387499999999999</v>
+      </c>
+      <c r="E37">
+        <v>44.645000000000003</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G37" t="n">
-        <v>3.95375</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G37">
+        <v>3.9537499999999999</v>
+      </c>
+      <c r="H37">
         <v>-25.52</v>
       </c>
       <c r="I37" t="s">
@@ -1798,7 +1864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1808,19 +1874,19 @@
       <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" t="n">
-        <v>9.735</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>9.7349999999999994</v>
+      </c>
+      <c r="E38">
         <v>48.55</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G38" t="n">
-        <v>7.005</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="H38">
         <v>-26.78</v>
       </c>
       <c r="I38" t="s">
@@ -1833,7 +1899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1843,19 +1909,19 @@
       <c r="C39" t="s">
         <v>37</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>11.24</v>
       </c>
-      <c r="E39" t="n">
-        <v>40.635</v>
+      <c r="E39">
+        <v>40.634999999999998</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.665</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>-26.23</v>
       </c>
       <c r="I39" t="s">
@@ -1868,9 +1934,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1878,34 +1944,34 @@
       <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.86</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>48.58</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>8.27</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>7.33</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-25.5</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
         <v>43</v>
       </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -1913,69 +1979,69 @@
       <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>43.31</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>10.11</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.7</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>-28.69</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
         <v>43</v>
       </c>
-      <c r="K41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9.28666666666667</v>
-      </c>
-      <c r="E42" t="n">
-        <v>47.5366666666667</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6.24666666666667</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5.00333333333333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-27.2466666666667</v>
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>9.2866666666666706</v>
+      </c>
+      <c r="E42">
+        <v>47.536666666666697</v>
+      </c>
+      <c r="F42">
+        <v>6.2466666666666697</v>
+      </c>
+      <c r="G42">
+        <v>5.0033333333333303</v>
+      </c>
+      <c r="H42">
+        <v>-27.246666666666702</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
       <c r="J42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
         <v>43</v>
       </c>
-      <c r="K42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -1983,34 +2049,34 @@
       <c r="C43" t="s">
         <v>37</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>9.82</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>39</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>4.63</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>2.14</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-27.63</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
       <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
         <v>43</v>
       </c>
-      <c r="K43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -2018,69 +2084,69 @@
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="n">
-        <v>8.855</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="E44">
         <v>43.82</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>5.85</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>6.66</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-23.125</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
       </c>
       <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
         <v>43</v>
       </c>
-      <c r="K44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="n">
+        <v>45</v>
+      </c>
+      <c r="D45">
         <v>10.81</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>50.89</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>5.49</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4.7</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-24.59</v>
       </c>
       <c r="I45" t="s">
         <v>34</v>
       </c>
       <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
         <v>43</v>
       </c>
-      <c r="K45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -2088,69 +2154,69 @@
       <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D46" t="n">
-        <v>6.43666666666667</v>
-      </c>
-      <c r="E46" t="n">
-        <v>49.2033333333333</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8.92666666666667</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.84666666666667</v>
-      </c>
-      <c r="H46" t="n">
-        <v>-25.3133333333333</v>
+      <c r="D46">
+        <v>6.4366666666666701</v>
+      </c>
+      <c r="E46">
+        <v>49.203333333333298</v>
+      </c>
+      <c r="F46">
+        <v>8.9266666666666694</v>
+      </c>
+      <c r="G46">
+        <v>6.8466666666666702</v>
+      </c>
+      <c r="H46">
+        <v>-25.313333333333301</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
         <v>43</v>
       </c>
-      <c r="K46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47">
         <v>8.65</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>52.74</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>7.11</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.3</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-25.74</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
       </c>
       <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
         <v>43</v>
       </c>
-      <c r="K47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -2158,34 +2224,34 @@
       <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>7.36</v>
       </c>
-      <c r="E48" t="n">
-        <v>39.3566666666667</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6.31333333333333</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="E48">
+        <v>39.356666666666698</v>
+      </c>
+      <c r="F48">
+        <v>6.3133333333333299</v>
+      </c>
+      <c r="G48">
         <v>2.76</v>
       </c>
-      <c r="H48" t="n">
-        <v>-27.3366666666667</v>
+      <c r="H48">
+        <v>-27.336666666666702</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
       </c>
       <c r="J48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s">
         <v>43</v>
       </c>
-      <c r="K48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -2193,34 +2259,34 @@
       <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E49">
         <v>41.49</v>
       </c>
       <c r="F49" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>5.91</v>
       </c>
-      <c r="H49" t="n">
-        <v>-25.1166666666667</v>
+      <c r="H49">
+        <v>-25.116666666666699</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
       </c>
       <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s">
         <v>43</v>
       </c>
-      <c r="K49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
@@ -2228,45 +2294,45 @@
       <c r="C50" t="s">
         <v>19</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>10.47</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>48.97</v>
       </c>
       <c r="F50" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>5.4</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-23.35</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
       </c>
       <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
         <v>43</v>
       </c>
-      <c r="K50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>48.07</v>
       </c>
       <c r="F51" t="e">
@@ -2275,34 +2341,512 @@
       <c r="G51" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-23.97</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
         <v>43</v>
-      </c>
-      <c r="K51" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C68C9E-C147-DA43-B8D3-A8496074C6FE}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="D2">
+        <v>43.82</v>
+      </c>
+      <c r="E2">
+        <v>5.85</v>
+      </c>
+      <c r="F2">
+        <v>6.66</v>
+      </c>
+      <c r="G2">
+        <v>-23.125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>10.81</v>
+      </c>
+      <c r="D3">
+        <v>50.89</v>
+      </c>
+      <c r="E3">
+        <v>5.49</v>
+      </c>
+      <c r="F3">
+        <v>4.7</v>
+      </c>
+      <c r="G3">
+        <v>-24.59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>43.31</v>
+      </c>
+      <c r="E4">
+        <v>10.11</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>-28.69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>7.4155555555555601</v>
+      </c>
+      <c r="D5">
+        <v>46.424444444444397</v>
+      </c>
+      <c r="E5">
+        <v>8.5983333333333292</v>
+      </c>
+      <c r="F5">
+        <v>6.6955555555555604</v>
+      </c>
+      <c r="G5">
+        <v>-25.31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10.47</v>
+      </c>
+      <c r="D6">
+        <v>48.97</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6">
+        <v>5.4</v>
+      </c>
+      <c r="G6">
+        <v>-23.35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>8.65</v>
+      </c>
+      <c r="D7">
+        <v>52.74</v>
+      </c>
+      <c r="E7">
+        <v>7.11</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
+      </c>
+      <c r="G7">
+        <v>-25.74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>9.2866666666666706</v>
+      </c>
+      <c r="D8">
+        <v>47.803333333333299</v>
+      </c>
+      <c r="E8">
+        <v>6.2466666666666697</v>
+      </c>
+      <c r="F8">
+        <v>5.0033333333333303</v>
+      </c>
+      <c r="G8">
+        <v>-25.608333333333299</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>8.59</v>
+      </c>
+      <c r="D9">
+        <v>39.178333333333299</v>
+      </c>
+      <c r="E9">
+        <v>5.4716666666666702</v>
+      </c>
+      <c r="F9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G9">
+        <v>-27.483333333333299</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25295B91-7F2F-AD47-897A-809256A59004}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.66</v>
+      </c>
+      <c r="B2">
+        <v>-23.125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.7</v>
+      </c>
+      <c r="B3">
+        <v>-28.69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.6955555555555604</v>
+      </c>
+      <c r="B4">
+        <v>-25.31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5.4</v>
+      </c>
+      <c r="B5">
+        <v>-23.35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.3</v>
+      </c>
+      <c r="B6">
+        <v>-25.74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.0033333333333303</v>
+      </c>
+      <c r="B7">
+        <v>-25.608333333333299</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B8">
+        <v>-27.483333333333299</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8A54D-23AB-1240-BD7B-77E83CD59F75}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4.7</v>
+      </c>
+      <c r="B2">
+        <v>-24.59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2310,19 +2854,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -2334,29 +2878,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.55333333333333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.0033333333333</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.53333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.716666666666667</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-28.1833333333333</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2">
+        <v>5.5533333333333301</v>
+      </c>
+      <c r="D2">
+        <v>44.003333333333302</v>
+      </c>
+      <c r="E2">
+        <v>9.5333333333333297</v>
+      </c>
+      <c r="F2">
+        <v>-0.71666666666666701</v>
+      </c>
+      <c r="G2">
+        <v>-28.183333333333302</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -2366,27 +2910,1004 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.43</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>51.42</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5.75</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.78</v>
       </c>
-      <c r="G3" t="n">
-        <v>-32.88</v>
+      <c r="G3">
+        <v>-32.880000000000003</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>7.375</v>
+      </c>
+      <c r="D4">
+        <v>50.484999999999999</v>
+      </c>
+      <c r="E4">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="F4">
+        <v>-2.2050000000000001</v>
+      </c>
+      <c r="G4">
+        <v>-27.47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>10.29</v>
+      </c>
+      <c r="D5">
+        <v>53.19</v>
+      </c>
+      <c r="E5">
+        <v>6.03</v>
+      </c>
+      <c r="F5">
+        <v>1.43</v>
+      </c>
+      <c r="G5">
+        <v>-27.86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6">
+        <v>52.59</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6">
+        <v>-29.32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>8.9566666666666706</v>
+      </c>
+      <c r="D7">
+        <v>51.344999999999999</v>
+      </c>
+      <c r="E7">
+        <v>6.6966666666666699</v>
+      </c>
+      <c r="F7">
+        <v>0.86</v>
+      </c>
+      <c r="G7">
+        <v>-27.836666666666702</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>9.4570833333333297</v>
+      </c>
+      <c r="D8">
+        <v>50.095833333333303</v>
+      </c>
+      <c r="E8">
+        <v>7.0894444444444398</v>
+      </c>
+      <c r="F8">
+        <v>-0.18458333333333299</v>
+      </c>
+      <c r="G8">
+        <v>-27.558333333333302</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>7.5949999999999998</v>
+      </c>
+      <c r="D9">
+        <v>46.702500000000001</v>
+      </c>
+      <c r="E9">
+        <v>6.915</v>
+      </c>
+      <c r="F9">
+        <v>1.76</v>
+      </c>
+      <c r="G9">
+        <v>-27.484999999999999</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>11.3125</v>
+      </c>
+      <c r="D10">
+        <v>55.945</v>
+      </c>
+      <c r="E10">
+        <v>7.06</v>
+      </c>
+      <c r="F10">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="G10">
+        <v>-27.782499999999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="D11">
+        <v>43.52</v>
+      </c>
+      <c r="E11">
+        <v>5.585</v>
+      </c>
+      <c r="F11">
+        <v>0.87</v>
+      </c>
+      <c r="G11">
+        <v>-26.524999999999999</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>5.52</v>
+      </c>
+      <c r="D12">
+        <v>38.83</v>
+      </c>
+      <c r="E12">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12">
+        <v>-24.73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>5.78</v>
+      </c>
+      <c r="D13">
+        <v>47.56</v>
+      </c>
+      <c r="E13">
+        <v>9.6</v>
+      </c>
+      <c r="F13">
+        <v>-1.68</v>
+      </c>
+      <c r="G13">
+        <v>-28.89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>7.7175000000000002</v>
+      </c>
+      <c r="D14">
+        <v>47.517499999999998</v>
+      </c>
+      <c r="E14">
+        <v>7.5374999999999996</v>
+      </c>
+      <c r="F14">
+        <v>3.1724999999999999</v>
+      </c>
+      <c r="G14">
+        <v>-25.807500000000001</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>8.8825000000000003</v>
+      </c>
+      <c r="D15">
+        <v>47.427500000000002</v>
+      </c>
+      <c r="E15">
+        <v>6.2350000000000003</v>
+      </c>
+      <c r="F15">
+        <v>2.19</v>
+      </c>
+      <c r="G15">
+        <v>-25.612500000000001</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="D16">
+        <v>56.25</v>
+      </c>
+      <c r="E16">
+        <v>10.005000000000001</v>
+      </c>
+      <c r="F16">
+        <v>1.36</v>
+      </c>
+      <c r="G16">
+        <v>-28.86</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>9.6</v>
+      </c>
+      <c r="D17">
+        <v>45.56</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17">
+        <v>2.04</v>
+      </c>
+      <c r="G17">
+        <v>-29.83</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>9.27</v>
+      </c>
+      <c r="D18">
+        <v>46.744999999999997</v>
+      </c>
+      <c r="E18">
+        <v>5.45</v>
+      </c>
+      <c r="F18">
+        <v>0.3175</v>
+      </c>
+      <c r="G18">
+        <v>-30.785</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>9.3668750000000003</v>
+      </c>
+      <c r="D19">
+        <v>47.361249999999998</v>
+      </c>
+      <c r="E19">
+        <v>6.3766666666666696</v>
+      </c>
+      <c r="F19">
+        <v>0.92343750000000002</v>
+      </c>
+      <c r="G19">
+        <v>-27.11375</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>7.1425000000000001</v>
+      </c>
+      <c r="D20">
+        <v>41.35</v>
+      </c>
+      <c r="E20">
+        <v>8.9</v>
+      </c>
+      <c r="F20">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="G20">
+        <v>-28.377500000000001</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>11.29</v>
+      </c>
+      <c r="D21">
+        <v>49.2</v>
+      </c>
+      <c r="E21">
+        <v>5.08</v>
+      </c>
+      <c r="F21">
+        <v>2.88</v>
+      </c>
+      <c r="G21">
+        <v>-26.09</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>9.9433333333333298</v>
+      </c>
+      <c r="D22">
+        <v>41.281666666666702</v>
+      </c>
+      <c r="E22">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="F22">
+        <v>1.79833333333333</v>
+      </c>
+      <c r="G22">
+        <v>-26.58</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="D23">
+        <v>43.82</v>
+      </c>
+      <c r="E23">
+        <v>5.85</v>
+      </c>
+      <c r="F23">
+        <v>6.66</v>
+      </c>
+      <c r="G23">
+        <v>-23.125</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>10.81</v>
+      </c>
+      <c r="D24">
+        <v>50.89</v>
+      </c>
+      <c r="E24">
+        <v>5.49</v>
+      </c>
+      <c r="F24">
+        <v>4.7</v>
+      </c>
+      <c r="G24">
+        <v>-24.59</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>43.31</v>
+      </c>
+      <c r="E25">
+        <v>10.11</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+      <c r="G25">
+        <v>-28.69</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>7.4155555555555601</v>
+      </c>
+      <c r="D26">
+        <v>46.424444444444397</v>
+      </c>
+      <c r="E26">
+        <v>8.5983333333333292</v>
+      </c>
+      <c r="F26">
+        <v>6.6955555555555604</v>
+      </c>
+      <c r="G26">
+        <v>-25.31</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>10.47</v>
+      </c>
+      <c r="D27">
+        <v>48.97</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F27">
+        <v>5.4</v>
+      </c>
+      <c r="G27">
+        <v>-23.35</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>8.65</v>
+      </c>
+      <c r="D28">
+        <v>52.74</v>
+      </c>
+      <c r="E28">
+        <v>7.11</v>
+      </c>
+      <c r="F28">
+        <v>1.3</v>
+      </c>
+      <c r="G28">
+        <v>-25.74</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>9.2866666666666706</v>
+      </c>
+      <c r="D29">
+        <v>47.803333333333299</v>
+      </c>
+      <c r="E29">
+        <v>6.2466666666666697</v>
+      </c>
+      <c r="F29">
+        <v>5.0033333333333303</v>
+      </c>
+      <c r="G29">
+        <v>-25.608333333333299</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>8.59</v>
+      </c>
+      <c r="D30">
+        <v>39.178333333333299</v>
+      </c>
+      <c r="E30">
+        <v>5.4716666666666702</v>
+      </c>
+      <c r="F30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G30">
+        <v>-27.483333333333299</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA39DD-9610-A64C-8B9C-AF148D0DAD0E}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>5.5533333333333301</v>
+      </c>
+      <c r="D2">
+        <v>44.003333333333302</v>
+      </c>
+      <c r="E2">
+        <v>9.5333333333333297</v>
+      </c>
+      <c r="F2">
+        <v>-0.71666666666666701</v>
+      </c>
+      <c r="G2">
+        <v>-28.183333333333302</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>10.43</v>
+      </c>
+      <c r="D3">
+        <v>51.42</v>
+      </c>
+      <c r="E3">
+        <v>5.75</v>
+      </c>
+      <c r="F3">
+        <v>0.78</v>
+      </c>
+      <c r="G3">
+        <v>-32.880000000000003</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -2398,26 +3919,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.375</v>
       </c>
-      <c r="D4" t="n">
-        <v>50.485</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.005</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-2.205</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="D4">
+        <v>50.484999999999999</v>
+      </c>
+      <c r="E4">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="F4">
+        <v>-2.2050000000000001</v>
+      </c>
+      <c r="G4">
         <v>-27.47</v>
       </c>
       <c r="H4" t="s">
@@ -2430,26 +3951,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>10.29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>53.19</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>6.03</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.43</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-27.86</v>
       </c>
       <c r="H5" t="s">
@@ -2462,7 +3983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2472,7 +3993,7 @@
       <c r="C6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>52.59</v>
       </c>
       <c r="E6" t="e">
@@ -2481,7 +4002,7 @@
       <c r="F6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-29.32</v>
       </c>
       <c r="H6" t="s">
@@ -2494,27 +4015,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>8.95666666666667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51.345</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.69666666666667</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="C7">
+        <v>8.9566666666666706</v>
+      </c>
+      <c r="D7">
+        <v>51.344999999999999</v>
+      </c>
+      <c r="E7">
+        <v>6.6966666666666699</v>
+      </c>
+      <c r="F7">
         <v>0.86</v>
       </c>
-      <c r="G7" t="n">
-        <v>-27.8366666666667</v>
+      <c r="G7">
+        <v>-27.836666666666702</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -2526,27 +4047,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.45708333333333</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.0958333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.08944444444444</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.184583333333333</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-27.5583333333333</v>
+      <c r="C8">
+        <v>9.4570833333333297</v>
+      </c>
+      <c r="D8">
+        <v>50.095833333333303</v>
+      </c>
+      <c r="E8">
+        <v>7.0894444444444398</v>
+      </c>
+      <c r="F8">
+        <v>-0.18458333333333299</v>
+      </c>
+      <c r="G8">
+        <v>-27.558333333333302</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -2558,27 +4079,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.595</v>
-      </c>
-      <c r="D9" t="n">
-        <v>46.7025</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9">
+        <v>7.5949999999999998</v>
+      </c>
+      <c r="D9">
+        <v>46.702500000000001</v>
+      </c>
+      <c r="E9">
         <v>6.915</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.76</v>
       </c>
-      <c r="G9" t="n">
-        <v>-27.485</v>
+      <c r="G9">
+        <v>-27.484999999999999</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -2590,27 +4111,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11.3125</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>55.945</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7.06</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.2325</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-27.7825</v>
+      <c r="F10">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="G10">
+        <v>-27.782499999999999</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -2622,30 +4143,552 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1116E7-C264-3C42-B031-B4C1F281E80A}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.78</v>
+      </c>
+      <c r="B2">
+        <v>-32.880000000000003</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.76</v>
+      </c>
+      <c r="B3">
+        <v>-27.484999999999999</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B8E2F0-36E2-C54F-8CC2-6FD624568E08}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-0.71666666666666701</v>
+      </c>
+      <c r="B2">
+        <v>-28.183333333333302</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2.2050000000000001</v>
+      </c>
+      <c r="B3">
+        <v>-27.47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.43</v>
+      </c>
+      <c r="B4">
+        <v>-27.86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5">
+        <v>-29.32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.86</v>
+      </c>
+      <c r="B6">
+        <v>-27.836666666666702</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-0.18458333333333299</v>
+      </c>
+      <c r="B7">
+        <v>-27.558333333333302</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="B8">
+        <v>-27.782499999999999</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CCCF1F-FF2D-EF4F-AD00-B58487AE97D5}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="D2">
+        <v>43.52</v>
+      </c>
+      <c r="E2">
+        <v>5.585</v>
+      </c>
+      <c r="F2">
+        <v>0.87</v>
+      </c>
+      <c r="G2">
+        <v>-26.524999999999999</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>5.52</v>
+      </c>
+      <c r="D3">
+        <v>38.83</v>
+      </c>
+      <c r="E3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G3">
+        <v>-24.73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>5.78</v>
+      </c>
+      <c r="D4">
+        <v>47.56</v>
+      </c>
+      <c r="E4">
+        <v>9.6</v>
+      </c>
+      <c r="F4">
+        <v>-1.68</v>
+      </c>
+      <c r="G4">
+        <v>-28.89</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>7.7175000000000002</v>
+      </c>
+      <c r="D5">
+        <v>47.517499999999998</v>
+      </c>
+      <c r="E5">
+        <v>7.5374999999999996</v>
+      </c>
+      <c r="F5">
+        <v>3.1724999999999999</v>
+      </c>
+      <c r="G5">
+        <v>-25.807500000000001</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>8.8825000000000003</v>
+      </c>
+      <c r="D6">
+        <v>47.427500000000002</v>
+      </c>
+      <c r="E6">
+        <v>6.2350000000000003</v>
+      </c>
+      <c r="F6">
+        <v>2.19</v>
+      </c>
+      <c r="G6">
+        <v>-25.612500000000001</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="D7">
+        <v>56.25</v>
+      </c>
+      <c r="E7">
+        <v>10.005000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.36</v>
+      </c>
+      <c r="G7">
+        <v>-28.86</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>9.6</v>
+      </c>
+      <c r="D8">
+        <v>45.56</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8">
+        <v>2.04</v>
+      </c>
+      <c r="G8">
+        <v>-29.83</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>9.27</v>
+      </c>
+      <c r="D9">
+        <v>46.745000000000005</v>
+      </c>
+      <c r="E9">
+        <v>5.45</v>
+      </c>
+      <c r="F9">
+        <v>0.3175</v>
+      </c>
+      <c r="G9">
+        <v>-30.785</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9.3668750000000003</v>
+      </c>
+      <c r="D10">
+        <v>47.361249999999998</v>
+      </c>
+      <c r="E10">
+        <v>6.3766666666666696</v>
+      </c>
+      <c r="F10">
+        <v>0.92343750000000002</v>
+      </c>
+      <c r="G10">
+        <v>-27.11375</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.205</v>
-      </c>
-      <c r="D11" t="n">
-        <v>43.52</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.585</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-26.525</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>7.1425000000000001</v>
+      </c>
+      <c r="D11">
+        <v>41.35</v>
+      </c>
+      <c r="E11">
+        <v>8.9</v>
+      </c>
+      <c r="F11">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="G11">
+        <v>-28.377500000000001</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
@@ -2654,30 +4697,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.21</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-24.73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>11.29</v>
+      </c>
+      <c r="D12">
+        <v>49.2</v>
+      </c>
+      <c r="E12">
+        <v>5.08</v>
+      </c>
+      <c r="F12">
+        <v>2.88</v>
+      </c>
+      <c r="G12">
+        <v>-26.09</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
@@ -2686,29 +4729,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="D13" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-28.89</v>
-      </c>
-      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>9.9433333333333298</v>
+      </c>
+      <c r="D13">
+        <v>41.281666666666702</v>
+      </c>
+      <c r="E13">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.79833333333333</v>
+      </c>
+      <c r="G13">
+        <v>-26.58</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
@@ -2718,584 +4761,262 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.7175</v>
-      </c>
-      <c r="D14" t="n">
-        <v>47.5175</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.5375</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.1725</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-25.8075</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.8825</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47.4275</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.235</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-25.6125</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.565</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10.005</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-28.86</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.56</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-29.83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="D18" t="n">
-        <v>46.29</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-30.63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-30.94</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.366875</v>
-      </c>
-      <c r="D20" t="n">
-        <v>47.36125</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.37666666666667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9234375</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-27.11375</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.1425</v>
-      </c>
-      <c r="D21" t="n">
-        <v>41.35</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-28.3775</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D22" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-26.09</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.94333333333333</v>
-      </c>
-      <c r="D23" t="n">
-        <v>41.2816666666667</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.79833333333333</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-26.58</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8.855</v>
-      </c>
-      <c r="D24" t="n">
-        <v>43.82</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-23.125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="D25" t="n">
-        <v>50.89</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-24.59</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>43.31</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-28.69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7.41555555555556</v>
-      </c>
-      <c r="D27" t="n">
-        <v>46.4244444444444</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8.59833333333333</v>
-      </c>
-      <c r="F27" t="n">
-        <v>6.69555555555556</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-25.31</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D28" t="n">
-        <v>48.97</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-23.35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="D29" t="n">
-        <v>52.74</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-25.74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.28666666666667</v>
-      </c>
-      <c r="D30" t="n">
-        <v>47.8033333333333</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.24666666666667</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5.00333333333333</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-25.6083333333333</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="D31" t="n">
-        <v>39.1783333333333</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.47166666666667</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-27.4833333333333</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B5C41F-5133-6D4B-923D-6DD172FA75E2}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.87</v>
+      </c>
+      <c r="B2">
+        <v>-26.524999999999999</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1.68</v>
+      </c>
+      <c r="B3">
+        <v>-28.89</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.1724999999999999</v>
+      </c>
+      <c r="B4">
+        <v>-25.807500000000001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.36</v>
+      </c>
+      <c r="B5">
+        <v>-28.86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.04</v>
+      </c>
+      <c r="B6">
+        <v>-29.83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.92343750000000002</v>
+      </c>
+      <c r="B7">
+        <v>-27.11375</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2.88</v>
+      </c>
+      <c r="B8">
+        <v>-26.09</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.79833333333333</v>
+      </c>
+      <c r="B9">
+        <v>-26.58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ADE389-1D02-5945-BF17-883C541535AE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B2">
+        <v>-24.73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2.19</v>
+      </c>
+      <c r="B3">
+        <v>-25.612500000000001</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="B4">
+        <v>-28.377500000000001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2857826E-9BE7-DC4B-86DD-D7AAE851D588}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.3175</v>
+      </c>
+      <c r="B2">
+        <v>-30.785</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>